--- a/Resource/excel/2001-玩家-进入游戏.xlsx
+++ b/Resource/excel/2001-玩家-进入游戏.xlsx
@@ -99,8 +99,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -123,65 +123,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,41 +139,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +200,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -252,16 +251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,19 +301,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,163 +439,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,36 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -560,26 +530,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,153 +577,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1209,7 @@
     <col min="1" max="1" width="25.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="43.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="44.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="39.875" style="4" customWidth="1"/>

--- a/Resource/excel/2001-玩家-进入游戏.xlsx
+++ b/Resource/excel/2001-玩家-进入游戏.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#enter</t>
   </si>
@@ -57,49 +57,14 @@
   <si>
     <t>LuaFunction(string)</t>
   </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>./script/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>game/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>enter.lua</t>
-    </r>
-  </si>
-  <si>
-    <t>NewPlayerFunction</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -123,9 +88,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,27 +118,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -176,19 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,67 +218,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,61 +266,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,121 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,20 +477,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,153 +561,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,15 +1161,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
@@ -1302,26 +1267,6 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/2001-玩家-进入游戏.xlsx
+++ b/Resource/excel/2001-玩家-进入游戏.xlsx
@@ -88,15 +88,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +111,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -125,6 +158,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,25 +194,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +216,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,56 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,37 +266,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,115 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +471,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +514,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -510,6 +536,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,197 +572,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,9 +1164,9 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
